--- a/DataInterfaces/excel/output.xlsx
+++ b/DataInterfaces/excel/output.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="MTCARS" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -89,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -166,4 +169,75 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>515.0</v>
+      </c>
+      <c r="E2" t="n" s="4">
+        <v>37258.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>623.0</v>
+      </c>
+      <c r="E3" t="n" s="4">
+        <v>37257.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>